--- a/Project Outputs for USB-UART-ISO-CP2102/Manufacturing Data/BOM/Bill of Materials-USB-UART-ISO-CP2102.xlsx
+++ b/Project Outputs for USB-UART-ISO-CP2102/Manufacturing Data/BOM/Bill of Materials-USB-UART-ISO-CP2102.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desktop\Documents\Project Files\Altium\Projects\Project - Devlopment\USB-UART-ISO-CP2102\Project Outputs for USB-UART-ISO-CP2102\Manufacturing Data\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72C5D797-B6F9-4833-818A-1E70458BA70A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A331034A-8C87-423E-80B6-5577F5FECD5A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="13290" xr2:uid="{6171161C-C3C7-4A7E-A88D-4E5EFFC9D852}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="13290" xr2:uid="{CF48DD29-E776-4B02-8A6E-DF6B5D9E08ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-USB-UART-ISO-" sheetId="1" r:id="rId1"/>
@@ -812,7 +812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E37D27-6A07-4D35-8910-E88518E408E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC1EEDD-68B6-4D10-BBAC-356AB0AF44D9}">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for USB-UART-ISO-CP2102/Manufacturing Data/BOM/Bill of Materials-USB-UART-ISO-CP2102.xlsx
+++ b/Project Outputs for USB-UART-ISO-CP2102/Manufacturing Data/BOM/Bill of Materials-USB-UART-ISO-CP2102.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desktop\Documents\Project Files\Altium\Projects\Project - Devlopment\USB-UART-ISO-CP2102\Project Outputs for USB-UART-ISO-CP2102\Manufacturing Data\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A331034A-8C87-423E-80B6-5577F5FECD5A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39D7369E-395B-48AC-9CD6-43BB5F0DA858}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="13290" xr2:uid="{CF48DD29-E776-4B02-8A6E-DF6B5D9E08ED}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="13290" xr2:uid="{F23A7062-C17C-4DA0-8E53-5BBC59010D98}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-USB-UART-ISO-" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="141">
   <si>
     <t>Comment</t>
   </si>
@@ -60,85 +60,100 @@
     <t>Voltage Rating</t>
   </si>
   <si>
-    <t>C0603C105K9PACTU</t>
-  </si>
-  <si>
-    <t>Ceramic Capacitor, Multilayer, Ceramic, 6.3V, 10% +Tol, 10% -Tol, X7R, 15% TC, 1uF, Surface Mount, 0603</t>
-  </si>
-  <si>
-    <t>C1I</t>
+    <t>KGM15AR70J104KM</t>
+  </si>
+  <si>
+    <t>Cap Cer 0.1UF 6.3V X7R 0603</t>
+  </si>
+  <si>
+    <t>C1I, C1R, C3U</t>
   </si>
   <si>
     <t>C0603-IPC_C_No_Silk</t>
   </si>
   <si>
-    <t>1uF_6.3V</t>
+    <t>100nF_6.3V</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>C1608X5R1A106K080AC</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitor, 10 uF, 10 V, ± 10%, X5R, 0603 [1608 Metric]</t>
+  </si>
+  <si>
+    <t>C1L</t>
+  </si>
+  <si>
+    <t>10uF_10V</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>10V</t>
+  </si>
+  <si>
+    <t>C0603C104K8RACTU</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitor, 0.1 uF, 10 V, ± 10%, X7R, 0603 [1608 Metric]</t>
+  </si>
+  <si>
+    <t>C1P, C1U, C2L, C2U, C4I</t>
+  </si>
+  <si>
+    <t>100nF_10V</t>
+  </si>
+  <si>
+    <t>06036A102KAT2A</t>
+  </si>
+  <si>
+    <t>Cap Ceramic 0.001uF 6.3V C0G 10% SMD 0603 125°C Paper T/R</t>
+  </si>
+  <si>
+    <t>C2I</t>
+  </si>
+  <si>
+    <t>1nF_6.3V</t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t>6.3V</t>
+  </si>
+  <si>
+    <t>C0603C105K8PACTU</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor, Multilayer, Ceramic, 10V, 10% +Tol, 10% -Tol, X5R, 15% TC, 1uF, 0603</t>
+  </si>
+  <si>
+    <t>C2R, C5I</t>
+  </si>
+  <si>
+    <t>1uF_10V</t>
   </si>
   <si>
     <t>1uF</t>
   </si>
   <si>
-    <t>10%</t>
-  </si>
-  <si>
-    <t>6.3V</t>
-  </si>
-  <si>
-    <t>C1608X5R1A106K080AC</t>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitor, 10 uF, 10 V, ± 10%, X5R, 0603 [1608 Metric]</t>
-  </si>
-  <si>
-    <t>C1L</t>
-  </si>
-  <si>
-    <t>10uF_10V</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>10V</t>
-  </si>
-  <si>
-    <t>C0603C104K8RACTU</t>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitor, 0.1 uF, 10 V, ± 10%, X7R, 0603 [1608 Metric]</t>
-  </si>
-  <si>
-    <t>C1P, C1U, C2L, C2U</t>
-  </si>
-  <si>
-    <t>100nF_10V</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>KGM15AR70J104KM</t>
-  </si>
-  <si>
-    <t>Cap Cer 0.1UF 6.3V X7R 0603</t>
-  </si>
-  <si>
-    <t>C1R, C3U</t>
-  </si>
-  <si>
-    <t>100nF_6.3V</t>
-  </si>
-  <si>
-    <t>C0603C105K8PACTU</t>
-  </si>
-  <si>
-    <t>Ceramic Capacitor, Multilayer, Ceramic, 10V, 10% +Tol, 10% -Tol, X5R, 15% TC, 1uF, 0603</t>
-  </si>
-  <si>
-    <t>C2I, C2R</t>
-  </si>
-  <si>
-    <t>1uF_10V</t>
+    <t>CC0603KRX7R6BB102</t>
+  </si>
+  <si>
+    <t>Cap Ceramic 0.001uF 10V X7R 10% SMD 0603 125°C Paper T/R</t>
+  </si>
+  <si>
+    <t>C3I</t>
+  </si>
+  <si>
+    <t>1nF_10V</t>
   </si>
   <si>
     <t>CL10A106KQ8NNNC</t>
@@ -208,6 +223,9 @@
   </si>
   <si>
     <t>FUSE_PPTC_0603</t>
+  </si>
+  <si>
+    <t>250mA</t>
   </si>
   <si>
     <t>USB4105-GF-A-060</t>
@@ -812,8 +830,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC1EEDD-68B6-4D10-BBAC-356AB0AF44D9}">
-  <dimension ref="A1:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F809A286-609E-489B-82AA-7DEB72AF23C8}">
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -873,7 +891,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
@@ -881,104 +899,104 @@
       <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1003,77 +1021,77 @@
         <v>33</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1087,7 +1105,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>49</v>
@@ -1095,23 +1113,31 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="G9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>54</v>
@@ -1119,9 +1145,7 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1145,16 +1169,18 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1164,57 +1190,59 @@
         <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -1226,51 +1254,49 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1278,32 +1304,28 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>85</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1317,13 +1339,13 @@
         <v>88</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>86</v>
@@ -1332,11 +1354,9 @@
         <v>90</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -1349,13 +1369,13 @@
         <v>94</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>92</v>
@@ -1364,42 +1384,42 @@
         <v>96</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1413,13 +1433,13 @@
         <v>105</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F21" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>103</v>
@@ -1428,175 +1448,207 @@
         <v>107</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="H22" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="H23" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J23" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="H24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F27" s="1">
         <v>1</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project Outputs for USB-UART-ISO-CP2102/Manufacturing Data/BOM/Bill of Materials-USB-UART-ISO-CP2102.xlsx
+++ b/Project Outputs for USB-UART-ISO-CP2102/Manufacturing Data/BOM/Bill of Materials-USB-UART-ISO-CP2102.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desktop\Documents\Project Files\Altium\Projects\Project - Devlopment\USB-UART-ISO-CP2102\Project Outputs for USB-UART-ISO-CP2102\Manufacturing Data\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39D7369E-395B-48AC-9CD6-43BB5F0DA858}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2662BB0A-CCB8-4CCC-8683-3AEBC981F6A2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="13290" xr2:uid="{F23A7062-C17C-4DA0-8E53-5BBC59010D98}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="13290" xr2:uid="{769B7173-9E6A-477D-BDB4-D5A072D0C959}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-USB-UART-ISO-" sheetId="1" r:id="rId1"/>
@@ -830,7 +830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F809A286-609E-489B-82AA-7DEB72AF23C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B719035-B343-4629-AA2C-44E550818761}">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for USB-UART-ISO-CP2102/Manufacturing Data/BOM/Bill of Materials-USB-UART-ISO-CP2102.xlsx
+++ b/Project Outputs for USB-UART-ISO-CP2102/Manufacturing Data/BOM/Bill of Materials-USB-UART-ISO-CP2102.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desktop\Documents\Project Files\Altium\Projects\Project - Devlopment\USB-UART-ISO-CP2102\Project Outputs for USB-UART-ISO-CP2102\Manufacturing Data\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2662BB0A-CCB8-4CCC-8683-3AEBC981F6A2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0AB170E-29ED-4015-8113-31CFFB7EF261}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="13290" xr2:uid="{769B7173-9E6A-477D-BDB4-D5A072D0C959}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="13290" xr2:uid="{ED2DA1C6-11ED-4A4A-9924-A9F4C88233F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-USB-UART-ISO-" sheetId="1" r:id="rId1"/>
@@ -830,7 +830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B719035-B343-4629-AA2C-44E550818761}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B78F6DE-DF64-432D-B8C9-F6C4B4490CF3}">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
